--- a/docss/trend/spain/E_anomaly.xlsx
+++ b/docss/trend/spain/E_anomaly.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cap11_Malformaciones_Comarcas" sheetId="2" r:id="rId1"/>
     <sheet name="Tasa_anual_cap11_Malformaciones" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12809,7 +12809,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12836,13 +12836,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>3.9920012634247541</v>
+        <v>3.992</v>
       </c>
       <c r="C2">
-        <v>4.2309826612472534</v>
+        <v>4.2309999999999999</v>
       </c>
       <c r="D2">
-        <v>3.7606093911454082</v>
+        <v>3.7610000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12850,13 +12850,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>3.7586587881669402</v>
+        <v>3.7589999999999999</v>
       </c>
       <c r="C3">
-        <v>4.0211613699793816</v>
+        <v>4.0209999999999999</v>
       </c>
       <c r="D3">
-        <v>3.4905414069071412</v>
+        <v>3.4910000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12864,13 +12864,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>3.1893917564302683</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="C4">
-        <v>3.527382779866457</v>
+        <v>3.5270000000000001</v>
       </c>
       <c r="D4">
-        <v>2.838426529429853</v>
+        <v>2.8380000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12878,13 +12878,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>3.263054477982223</v>
+        <v>3.2629999999999999</v>
       </c>
       <c r="C5">
-        <v>3.4235404990613461</v>
+        <v>3.4239999999999999</v>
       </c>
       <c r="D5">
-        <v>3.0883199144154787</v>
+        <v>3.0880000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12892,13 +12892,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>3.1623765230178833</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="C6">
-        <v>3.3293115850538015</v>
+        <v>3.3290000000000002</v>
       </c>
       <c r="D6">
-        <v>3.000299695879221</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12906,13 +12906,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>3.0107308505102992</v>
+        <v>3.0110000000000001</v>
       </c>
       <c r="C7">
-        <v>3.4075233121402562</v>
+        <v>3.4079999999999999</v>
       </c>
       <c r="D7">
-        <v>2.5991567689925432</v>
+        <v>2.5990000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12920,13 +12920,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>2.7560059372335672</v>
+        <v>2.7559999999999998</v>
       </c>
       <c r="C8">
-        <v>2.9190200716257095</v>
+        <v>2.919</v>
       </c>
       <c r="D8">
-        <v>2.5864011896774173</v>
+        <v>2.5859999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12934,13 +12934,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>2.5761919654905796</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="C9">
-        <v>2.87519202940166</v>
+        <v>2.875</v>
       </c>
       <c r="D9">
-        <v>2.2726018615067005</v>
+        <v>2.2730000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12948,13 +12948,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>2.3214428965002298</v>
+        <v>2.3210000000000002</v>
       </c>
       <c r="C10">
-        <v>2.5382221434265375</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="D10">
-        <v>2.1056890152394772</v>
+        <v>2.1059999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12962,13 +12962,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>2.3851236747577786</v>
+        <v>2.3849999999999998</v>
       </c>
       <c r="C11">
-        <v>2.427520832978189</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="D11">
-        <v>2.3361281948164105</v>
+        <v>2.3359999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12976,13 +12976,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>2.153422380797565</v>
+        <v>2.153</v>
       </c>
       <c r="C12">
-        <v>2.2172460546717048</v>
+        <v>2.2170000000000001</v>
       </c>
       <c r="D12">
-        <v>2.0874008517712355</v>
+        <v>2.0870000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12990,13 +12990,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>2.2337068952620029</v>
+        <v>2.234</v>
       </c>
       <c r="C13">
-        <v>2.3801066186279058</v>
+        <v>2.38</v>
       </c>
       <c r="D13">
-        <v>2.091892322525382</v>
+        <v>2.0920000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13004,13 +13004,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>2.1583772636950016</v>
+        <v>2.1579999999999999</v>
       </c>
       <c r="C14">
-        <v>2.2585873948410153</v>
+        <v>2.2589999999999999</v>
       </c>
       <c r="D14">
-        <v>2.0624867519363761</v>
+        <v>2.0619999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13018,13 +13018,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>1.8496583458036184</v>
+        <v>1.85</v>
       </c>
       <c r="C15">
-        <v>1.8781558303162456</v>
+        <v>1.8779999999999999</v>
       </c>
       <c r="D15">
-        <v>1.8311556037515402</v>
+        <v>1.831</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13032,13 +13032,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>1.6891212798655033</v>
+        <v>1.6890000000000001</v>
       </c>
       <c r="C16">
-        <v>1.6963262390345335</v>
+        <v>1.696</v>
       </c>
       <c r="D16">
-        <v>1.6995362909510732</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
